--- a/abner/Config_Files/config_logRcnd.xlsx
+++ b/abner/Config_Files/config_logRcnd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b15f2988ffa366a8/Documents/WELLS/ND_152N_101W_20241004_LAS_FP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b15f2988ffa366a8/Documents/YeniDogus/Config_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="647" documentId="13_ncr:1_{DC34BDF9-04DF-4107-B286-19CED20375D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3A3533-7591-43F7-BCCA-9D9E3F87C800}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="13_ncr:1_{DC34BDF9-04DF-4107-B286-19CED20375D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFD21DC-7887-49D9-BDC9-C3503AA9FDEC}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="220" windowWidth="28800" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="900" windowWidth="32900" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonization" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
   <si>
     <t>DEPTH</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>mudS_max_diff</t>
+  </si>
+  <si>
+    <t>depth_drop_negative_depth</t>
+  </si>
+  <si>
+    <t>depth_downLog_flip</t>
+  </si>
+  <si>
+    <t>DEPTH:1</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +672,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -705,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,6 +798,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +814,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,13 +1082,13 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" style="3"/>
-    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="3"/>
+    <col min="5" max="5" width="15.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1123,6 +1135,9 @@
       </c>
       <c r="I2" t="s">
         <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1548,9 +1563,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1702,9 +1717,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="8.85546875" style="8"/>
+    <col min="6" max="6" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1926,10 +1941,10 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2072,17 +2087,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A63242-0365-42B0-988E-5F8973516EB6}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="25" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="25"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="25" customWidth="1"/>
+    <col min="3" max="6" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2216,6 +2231,22 @@
       </c>
       <c r="F17" s="25" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2231,11 +2262,11 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="25"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
